--- a/data/trans_camb/P23_6_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P23_6_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,16</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>5,06</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,05</t>
+          <t>-0,5</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-1,27</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,99</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,6</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>3,14</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,19</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 2,06</t>
+          <t>-2,67; 1,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 3,69</t>
+          <t>-1,33; 3,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,27; 9,25</t>
+          <t>0,16; 6,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 1,08</t>
+          <t>1,29; 8,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 2,6</t>
+          <t>-2,05; 5,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,18; 7,45</t>
+          <t>-4,32; 1,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 0,92</t>
+          <t>-2,58; 2,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 2,41</t>
+          <t>0,04; 6,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,91; 7,18</t>
+          <t>-3,8; 2,76</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-4,37; 1,59</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,78; 0,62</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-1,12; 2,43</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,15; 5,56</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,04; 5,05</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-2,15; 2,75</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-8,53%</t>
+          <t>-6,33%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>24,91%</t>
+          <t>28,12%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>145,0%</t>
+          <t>71,91%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-21,42%</t>
+          <t>71,1%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,46%</t>
+          <t>17,14%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>57,16%</t>
+          <t>-23,32%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-16,88%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>46,36%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>88,11%</t>
+          <t>-4,82%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-11,41%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-17,36%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>10,64%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>55,26%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>24,8%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>2,05%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-48,23; 70,65</t>
+          <t>-47,18; 59,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-26,72; 124,66</t>
+          <t>-26,56; 126,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>48,8; 311,87</t>
+          <t>-1,02; 190,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-48,21; 20,19</t>
+          <t>12,32; 160,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,15; 47,14</t>
+          <t>-16,95; 61,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,4; 127,83</t>
+          <t>-49,59; 22,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-40,6; 20,96</t>
+          <t>-30,13; 51,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-18,43; 52,13</t>
+          <t>-1,65; 114,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>43,44; 152,17</t>
+          <t>-31,14; 33,34</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-34,71; 17,5</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-40,74; 13,71</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-17,24; 49,57</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>15,98; 113,13</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-0,82; 66,05</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-17,53; 28,39</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>8,92</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>7,67</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>1,16</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2,1</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-1,52</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-1,48</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>5,19</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>5,04</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 0,99</t>
+          <t>-5,77; 1,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 1,21</t>
+          <t>-5,74; 1,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 6,07</t>
+          <t>-3,87; 4,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 2,47</t>
+          <t>3,89; 15,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 2,11</t>
+          <t>2,29; 13,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 5,84</t>
+          <t>-4,06; 2,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 0,64</t>
+          <t>-4,6; 1,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 0,96</t>
+          <t>-2,2; 5,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 5,04</t>
+          <t>-3,76; 5,96</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-3,08; 7,43</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-4,13; 0,59</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-4,29; 0,37</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-1,71; 4,09</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1,42; 8,74</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,82; 9,17</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-36,92%</t>
+          <t>-37,32%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-27,63%</t>
+          <t>-31,67%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>25,32%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-5,1%</t>
+          <t>140,22%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-10,62%</t>
+          <t>100,89%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,55%</t>
+          <t>-10,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-20,86%</t>
+          <t>-15,13%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-19,0%</t>
+          <t>31,3%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>24,81%</t>
+          <t>13,23%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>26,79%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-23,65%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-23,12%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>17,69%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>68,73%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>65,26%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-69,76; 29,89</t>
+          <t>-69,93; 29,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-60,95; 29,14</t>
+          <t>-63,24; 30,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-37,8; 132,8</t>
+          <t>-47,56; 95,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-43,51; 52,33</t>
+          <t>33,37; 320,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-48,48; 46,52</t>
+          <t>16,19; 283,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-40,58; 113,83</t>
+          <t>-46,42; 52,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-48,09; 16,02</t>
+          <t>-51,71; 40,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-44,0; 20,55</t>
+          <t>-26,48; 114,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-25,82; 96,97</t>
+          <t>-35,43; 81,47</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-34,02; 149,69</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-50,18; 13,15</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-50,99; 8,61</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-23,3; 75,76</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>13,22; 129,47</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>6,41; 147,92</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,09</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>6,53</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,53</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>0,61</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,16</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>2,33</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0,21</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2,51</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,23</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>4,84</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 16,22</t>
+          <t>-2,73; 16,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 4,25</t>
+          <t>-7,6; 3,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-2,24; 28,08</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-4,55; 5,53</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 7,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-5,07; 5,93</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-4,05; 7,76</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-3,14; 9,76</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-1,58; 8,63</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-3,81; 3,85</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-2,21; 8,95</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-4,19; 3,99</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-0,53; 16,02</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>77,57%</t>
+          <t>74,13%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-23,51%</t>
+          <t>-28,8%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>111,24%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>8,8%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>28,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>9,68%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>20,27%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>49,97%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>41,22%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>3,77%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>41,12%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-3,72%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>79,47%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-43,21; 534,64</t>
+          <t>-51,54; 538,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-82,49; 184,5</t>
+          <t>-85,85; 132,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-49,03; 940,56</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-57,42; 161,31</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-51,24; 192,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-55,82; 165,96</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-47,17; 239,71</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-40,55; 240,2</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-24,47; 232,36</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-52,41; 100,46</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-32,77; 201,52</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-52,88; 97,31</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-13,48; 345,82</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,63</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,76</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-0,54</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,78</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-0,31</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>2,55</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>2,83</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1,32</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 1,4</t>
+          <t>-2,46; 1,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 1,44</t>
+          <t>-2,21; 1,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,18; 7,15</t>
+          <t>-0,18; 5,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 1,08</t>
+          <t>2,0; 8,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 1,72</t>
+          <t>0,19; 6,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,19; 6,29</t>
+          <t>-3,04; 0,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 0,69</t>
+          <t>-2,17; 1,67</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 1,1</t>
+          <t>0,36; 5,38</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,59; 5,97</t>
+          <t>-2,41; 2,51</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-3,21; 2,19</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-2,19; 0,62</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; 1,08</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,81; 4,44</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 4,85</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-0,71; 3,59</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-11,12%</t>
+          <t>-9,89%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-6,2%</t>
+          <t>-8,28%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>90,88%</t>
+          <t>44,58%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-12,35%</t>
+          <t>73,74%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-1,06%</t>
+          <t>33,02%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>56,52%</t>
+          <t>-15,15%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-11,95%</t>
+          <t>-2,95%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-3,24%</t>
+          <t>41,14%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>70,85%</t>
+          <t>2,33%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-5,21%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-13,03%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-5,18%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>42,43%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>33,03%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>13,14%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-42,79; 35,73</t>
+          <t>-40,55; 40,3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-36,65; 36,08</t>
+          <t>-35,66; 31,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>33,92; 172,47</t>
+          <t>-5,89; 122,63</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-35,97; 19,35</t>
+          <t>15,92; 138,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-27,54; 29,28</t>
+          <t>1,72; 82,05</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>14,08; 107,2</t>
+          <t>-36,84; 17,06</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-31,82; 13,17</t>
+          <t>-27,7; 31,79</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-23,57; 20,72</t>
+          <t>3,36; 88,95</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>38,1; 115,03</t>
+          <t>-21,78; 29,87</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-27,1; 23,83</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-32,04; 11,73</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-25,35; 20,18</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>12,08; 82,72</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>4,53; 62,9</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-6,73; 38,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
